--- a/data_output/prism_passive/all_passive_out_norm_length_msc_GM_Fuku_submax_1.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_length_msc_GM_Fuku_submax_1.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,130 +513,130 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>13.467418845179061</v>
+        <v>13.467418842849252</v>
       </c>
       <c r="C2">
-        <v>15.097327216080572</v>
+        <v>15.097327213563116</v>
       </c>
       <c r="D2">
-        <v>13.802116358051391</v>
+        <v>13.802116351100491</v>
       </c>
       <c r="E2">
-        <v>15.954225530281823</v>
+        <v>15.954225528218153</v>
       </c>
       <c r="F2">
-        <v>10.740577039923732</v>
+        <v>10.740577038160676</v>
       </c>
       <c r="G2">
-        <v>13.039883119404342</v>
+        <v>13.03988312013292</v>
       </c>
       <c r="H2">
-        <v>10.582646425962551</v>
+        <v>10.582646422636117</v>
       </c>
       <c r="I2">
-        <v>11.757474756343466</v>
+        <v>11.757474758337905</v>
       </c>
       <c r="J2">
-        <v>15.353814274585792</v>
+        <v>15.353814269612123</v>
       </c>
       <c r="K2">
-        <v>12.104855389027138</v>
+        <v>12.104855391216484</v>
       </c>
       <c r="L2">
-        <v>11.276988481933994</v>
+        <v>11.276988480043681</v>
       </c>
       <c r="N2">
-        <v>12.582326504754301</v>
+        <v>12.582326504642626</v>
       </c>
       <c r="O2">
-        <v>11.625879662460751</v>
+        <v>11.625879656142747</v>
       </c>
       <c r="P2">
-        <v>13.26508660588056</v>
+        <v>13.265086603773399</v>
       </c>
       <c r="Q2">
-        <v>12.417561495966524</v>
+        <v>12.417561489044317</v>
       </c>
       <c r="S2">
-        <v>16.634811337424129</v>
+        <v>16.634811304567791</v>
       </c>
       <c r="V2">
-        <v>9.979320638882994</v>
+        <v>9.9793206321913832</v>
       </c>
       <c r="W2">
-        <v>9.0719842547144403</v>
+        <v>9.0719842507480877</v>
       </c>
       <c r="X2">
-        <v>13.801255130983501</v>
+        <v>13.801255126067327</v>
       </c>
       <c r="AA2">
-        <v>14.905518364226038</v>
+        <v>14.905518357236481</v>
       </c>
       <c r="AB2">
-        <v>16.6436791715373</v>
+        <v>16.643679157877838</v>
       </c>
       <c r="AC2">
-        <v>12.90044226900657</v>
+        <v>12.900442269340569</v>
       </c>
       <c r="AD2">
-        <v>16.800570983253539</v>
+        <v>16.800570967896828</v>
       </c>
       <c r="AE2">
-        <v>12.279792863019019</v>
+        <v>12.279792862475576</v>
       </c>
       <c r="AF2">
-        <v>13.656371145366297</v>
+        <v>13.656371144094104</v>
       </c>
       <c r="AG2">
-        <v>11.550418737234287</v>
+        <v>11.550418730443958</v>
       </c>
       <c r="AH2">
-        <v>12.429212042236742</v>
+        <v>12.429212033028396</v>
       </c>
       <c r="AI2">
-        <v>17.241942112970097</v>
+        <v>17.241942097738203</v>
       </c>
       <c r="AJ2">
-        <v>11.910562041246035</v>
+        <v>11.910562038574586</v>
       </c>
       <c r="AK2">
-        <v>12.274756387181714</v>
+        <v>12.274756380932681</v>
       </c>
       <c r="AL2">
-        <v>14.649448247751842</v>
+        <v>14.649448241340462</v>
       </c>
       <c r="AM2">
-        <v>12.7491466503935</v>
+        <v>12.749146638718415</v>
       </c>
       <c r="AN2">
-        <v>12.71842323929503</v>
+        <v>12.718423230545389</v>
       </c>
       <c r="AO2">
-        <v>14.856216530798536</v>
+        <v>14.85621651884628</v>
       </c>
       <c r="AQ2">
-        <v>11.4948608942269</v>
+        <v>11.494860884208649</v>
       </c>
       <c r="AR2">
-        <v>16.827288236823485</v>
+        <v>16.827288240512431</v>
       </c>
       <c r="AS2">
-        <v>13.311453406812015</v>
+        <v>13.311453395436931</v>
       </c>
       <c r="AU2">
-        <v>11.381919278419961</v>
+        <v>11.381919272845971</v>
       </c>
       <c r="AV2">
-        <v>10.814672250298663</v>
+        <v>10.814672236431736</v>
       </c>
       <c r="AW2">
-        <v>13.470143322991291</v>
+        <v>13.470143313167494</v>
       </c>
       <c r="AX2">
-        <v>16.573724135634428</v>
+        <v>16.573724129247658</v>
       </c>
       <c r="AY2">
-        <v>16.231440504694984</v>
+        <v>16.231440493163323</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -649,121 +644,121 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>14.095759996838186</v>
+        <v>14.095759990703977</v>
       </c>
       <c r="C3">
-        <v>13.295163222776255</v>
+        <v>13.295163215598581</v>
       </c>
       <c r="E3">
-        <v>14.961214400206648</v>
+        <v>14.961214396597915</v>
       </c>
       <c r="F3">
-        <v>10.123758807788056</v>
+        <v>10.123758802847219</v>
       </c>
       <c r="G3">
-        <v>14.01548688010956</v>
+        <v>14.015486875692297</v>
       </c>
       <c r="H3">
-        <v>10.127371691370261</v>
+        <v>10.12737168938812</v>
       </c>
       <c r="J3">
-        <v>16.494670819222744</v>
+        <v>16.494670806917373</v>
       </c>
       <c r="K3">
-        <v>14.5822611511392</v>
+        <v>14.582261147132877</v>
       </c>
       <c r="L3">
-        <v>12.351608675875102</v>
+        <v>12.351608668176116</v>
       </c>
       <c r="M3">
-        <v>14.133701161918191</v>
+        <v>14.133674363469526</v>
       </c>
       <c r="N3">
-        <v>12.732355391142494</v>
+        <v>12.732355385724601</v>
       </c>
       <c r="P3">
-        <v>14.139316156308276</v>
+        <v>14.13931614361656</v>
       </c>
       <c r="Q3">
-        <v>10.820803519493191</v>
+        <v>10.820803514567011</v>
       </c>
       <c r="R3">
-        <v>9.5442078609242049</v>
+        <v>9.5442078489037812</v>
       </c>
       <c r="W3">
-        <v>10.638450424587392</v>
+        <v>10.638450414540648</v>
       </c>
       <c r="AA3">
-        <v>14.894957404970055</v>
+        <v>14.894957395779546</v>
       </c>
       <c r="AB3">
-        <v>15.206826477787979</v>
+        <v>15.206826469677223</v>
       </c>
       <c r="AC3">
-        <v>15.440347237144273</v>
+        <v>15.440347234771151</v>
       </c>
       <c r="AD3">
-        <v>17.219091118322851</v>
+        <v>17.21909111220689</v>
       </c>
       <c r="AE3">
-        <v>12.541417281297168</v>
+        <v>12.541417279037837</v>
       </c>
       <c r="AF3">
-        <v>14.769165894724107</v>
+        <v>14.769165888507466</v>
       </c>
       <c r="AG3">
-        <v>11.753814643190488</v>
+        <v>11.753814634841946</v>
       </c>
       <c r="AH3">
-        <v>14.096382654482916</v>
+        <v>14.09638264551922</v>
       </c>
       <c r="AI3">
-        <v>21.040368723068902</v>
+        <v>21.04036872196383</v>
       </c>
       <c r="AJ3">
-        <v>13.402045176669111</v>
+        <v>13.402045168235263</v>
       </c>
       <c r="AK3">
-        <v>13.923003131375713</v>
+        <v>13.923003125265348</v>
       </c>
       <c r="AL3">
-        <v>14.343016899925537</v>
+        <v>14.343016888781149</v>
       </c>
       <c r="AM3">
-        <v>13.855620061542998</v>
+        <v>13.855620047232103</v>
       </c>
       <c r="AN3">
-        <v>10.852455673126634</v>
+        <v>10.852455666281253</v>
       </c>
       <c r="AO3">
-        <v>15.531181571281399</v>
+        <v>15.531181566149968</v>
       </c>
       <c r="AP3">
-        <v>11.247680212419194</v>
+        <v>11.247680205676842</v>
       </c>
       <c r="AQ3">
-        <v>10.825833602259387</v>
+        <v>10.825833595467389</v>
       </c>
       <c r="AS3">
-        <v>12.214889767999406</v>
+        <v>12.214889766069499</v>
       </c>
       <c r="AT3">
-        <v>16.183335354418105</v>
+        <v>16.183335345052154</v>
       </c>
       <c r="AU3">
-        <v>10.916615908325744</v>
+        <v>10.916615906314831</v>
       </c>
       <c r="AV3">
-        <v>10.713630096589185</v>
+        <v>10.713630090131062</v>
       </c>
       <c r="AW3">
-        <v>13.466043142304057</v>
+        <v>13.466043134531979</v>
       </c>
       <c r="AX3">
-        <v>14.760809496080585</v>
+        <v>14.760809487465934</v>
       </c>
       <c r="AY3">
-        <v>18.030589818411514</v>
+        <v>18.030589808067845</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_norm_length_msc_GM_Fuku_submax_1.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_length_msc_GM_Fuku_submax_1.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,56 +401,59 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>13.467418842849252</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>15.097327213563116</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>13.802116351100491</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>15.954225528218153</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>10.740577038160676</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>13.03988312013292</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>10.582646422636117</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>11.757474758337905</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>15.353814269612123</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>12.104855391216484</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>11.276988480043681</v>
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>12.582326504642626</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>11.625879656142747</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>13.265086603773399</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>12.417561489044317</v>
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>16.634811304567791</v>
+        <v>14.96626938356842</v>
       </c>
       <c r="V2">
         <v>9.9793206321913832</v>
@@ -570,52 +465,55 @@
         <v>13.801255126067327</v>
       </c>
       <c r="AA2">
-        <v>14.905518357236481</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>16.643679157877838</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>12.900442269340569</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>16.800570967896828</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>12.279792862475576</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>13.656371144094104</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>11.550418730443958</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>12.429212033028396</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>17.241942097738203</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>11.910562038574586</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>12.274756380932681</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>14.649448241340462</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>12.749146638718415</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>12.718423230545389</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>14.85621651884628</v>
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>11.494860884208649</v>
+        <v>0</v>
       </c>
       <c r="AR2">
         <v>16.827288240512431</v>
@@ -640,104 +538,110 @@
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>14.095759990703977</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>13.295163215598581</v>
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>14.961214396597915</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>10.123758802847219</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>14.015486875692297</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>10.12737168938812</v>
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>16.494670806917373</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>14.582261147132877</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>12.351608668176116</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>14.133674363469526</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>12.732355385724601</v>
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>14.13931614361656</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>10.820803514567011</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>9.5442078489037812</v>
+        <v>0</v>
       </c>
       <c r="W3">
         <v>10.638450414540648</v>
       </c>
       <c r="AA3">
-        <v>14.894957395779546</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>15.206826469677223</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>15.440347234771151</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>17.21909111220689</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>12.541417279037837</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>14.769165888507466</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>11.753814634841946</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>14.09638264551922</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>21.04036872196383</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>13.402045168235263</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>13.923003125265348</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>14.343016888781149</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>13.855620047232103</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>10.852455666281253</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>15.531181566149968</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>11.247680205676842</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>10.825833595467389</v>
+        <v>0</v>
       </c>
       <c r="AS3">
         <v>12.214889766069499</v>

--- a/data_output/prism_passive/all_passive_out_norm_length_msc_GM_Fuku_submax_1.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_length_msc_GM_Fuku_submax_1.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>13.467418845179061</v>
-      </c>
-      <c r="C2">
-        <v>14.552954598050825</v>
+        <v>11.625879656142747</v>
       </c>
       <c r="D2">
-        <v>13.802116358051391</v>
+        <v>12.718423230545389</v>
       </c>
       <c r="E2">
-        <v>15.954225530281823</v>
+        <v>11.494860884208649</v>
       </c>
       <c r="F2">
         <v>10.740577039923732</v>
@@ -648,14 +640,14 @@
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>14.095759996838186</v>
-      </c>
       <c r="C3">
-        <v>13.295163222776255</v>
+        <v>9.5442078489037812</v>
+      </c>
+      <c r="D3">
+        <v>11.054580937996574</v>
       </c>
       <c r="E3">
-        <v>14.961214400206648</v>
+        <v>11.009267784812847</v>
       </c>
       <c r="F3">
         <v>10.123758807788056</v>

--- a/data_output/prism_passive/all_passive_out_norm_length_msc_GM_Fuku_submax_1.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_length_msc_GM_Fuku_submax_1.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>13.467418845179061</v>
+        <v>12.386226927486634</v>
       </c>
       <c r="C2">
-        <v>14.552954598050825</v>
+        <v>11.625879656142747</v>
       </c>
       <c r="D2">
-        <v>13.802116358051391</v>
+        <v>12.749146638718415</v>
       </c>
       <c r="E2">
-        <v>15.954225530281823</v>
+        <v>12.718423230545389</v>
       </c>
       <c r="F2">
         <v>10.740577039923732</v>
@@ -646,13 +641,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>14.095759996838186</v>
-      </c>
-      <c r="C3">
-        <v>13.295163222776255</v>
+        <v>12.732355385724601</v>
+      </c>
+      <c r="D3">
+        <v>13.855620047232103</v>
       </c>
       <c r="E3">
-        <v>16.265721723497879</v>
+        <v>11.054580937996574</v>
       </c>
       <c r="F3">
         <v>10.123758807788056</v>

--- a/data_output/prism_passive/all_passive_out_norm_length_msc_GM_Fuku_submax_1.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_length_msc_GM_Fuku_submax_1.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -513,127 +513,127 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>13.467418842849252</v>
+      </c>
+      <c r="C2">
+        <v>14.552954596075352</v>
+      </c>
+      <c r="D2">
+        <v>13.802116351100491</v>
+      </c>
+      <c r="E2">
+        <v>15.954225528218153</v>
+      </c>
+      <c r="F2">
+        <v>10.740577038160676</v>
+      </c>
+      <c r="G2">
+        <v>13.900426338317601</v>
+      </c>
+      <c r="H2">
+        <v>10.582646422636117</v>
+      </c>
+      <c r="I2">
+        <v>12.554259386174579</v>
+      </c>
+      <c r="J2">
+        <v>15.353814269612123</v>
+      </c>
+      <c r="K2">
+        <v>12.104855391216484</v>
+      </c>
+      <c r="L2">
+        <v>11.321405162225979</v>
+      </c>
+      <c r="N2">
         <v>12.386226927486634</v>
       </c>
-      <c r="C2">
+      <c r="O2">
         <v>11.625879656142747</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>13.577645550762535</v>
+      </c>
+      <c r="Q2">
+        <v>12.417561489044317</v>
+      </c>
+      <c r="V2">
+        <v>10.562661442210871</v>
+      </c>
+      <c r="W2">
+        <v>9.0719842507480877</v>
+      </c>
+      <c r="X2">
+        <v>13.801255126067327</v>
+      </c>
+      <c r="AA2">
+        <v>14.905518357236481</v>
+      </c>
+      <c r="AB2">
+        <v>16.643679157877838</v>
+      </c>
+      <c r="AC2">
+        <v>12.900442269340569</v>
+      </c>
+      <c r="AD2">
+        <v>16.800570967896828</v>
+      </c>
+      <c r="AE2">
+        <v>12.279792862475576</v>
+      </c>
+      <c r="AF2">
+        <v>13.656371144094104</v>
+      </c>
+      <c r="AG2">
+        <v>11.550418730443958</v>
+      </c>
+      <c r="AH2">
+        <v>12.429212033028396</v>
+      </c>
+      <c r="AI2">
+        <v>17.241942097738203</v>
+      </c>
+      <c r="AJ2">
+        <v>11.910562038574586</v>
+      </c>
+      <c r="AK2">
+        <v>12.274756380932681</v>
+      </c>
+      <c r="AL2">
+        <v>14.649448241340462</v>
+      </c>
+      <c r="AM2">
         <v>12.749146638718415</v>
       </c>
-      <c r="E2">
+      <c r="AN2">
         <v>12.718423230545389</v>
       </c>
-      <c r="F2">
-        <v>10.740577039923732</v>
-      </c>
-      <c r="G2">
-        <v>13.900426337834498</v>
-      </c>
-      <c r="H2">
-        <v>10.582646425962551</v>
-      </c>
-      <c r="I2">
-        <v>12.554259383020803</v>
-      </c>
-      <c r="J2">
-        <v>15.353814274585792</v>
-      </c>
-      <c r="K2">
-        <v>12.104855389027138</v>
-      </c>
-      <c r="L2">
-        <v>11.32140516579824</v>
-      </c>
-      <c r="N2">
-        <v>12.386226928588158</v>
-      </c>
-      <c r="O2">
-        <v>11.625879662460751</v>
-      </c>
-      <c r="P2">
-        <v>13.577645551271406</v>
-      </c>
-      <c r="Q2">
-        <v>12.417561495966524</v>
-      </c>
-      <c r="V2">
-        <v>10.56266145193246</v>
-      </c>
-      <c r="W2">
-        <v>9.0719842547144403</v>
-      </c>
-      <c r="X2">
-        <v>13.801255130983501</v>
-      </c>
-      <c r="AA2">
-        <v>14.905518364226038</v>
-      </c>
-      <c r="AB2">
-        <v>16.6436791715373</v>
-      </c>
-      <c r="AC2">
-        <v>12.90044226900657</v>
-      </c>
-      <c r="AD2">
-        <v>16.800570983253539</v>
-      </c>
-      <c r="AE2">
-        <v>12.279792863019019</v>
-      </c>
-      <c r="AF2">
-        <v>13.656371145366297</v>
-      </c>
-      <c r="AG2">
-        <v>11.550418737234287</v>
-      </c>
-      <c r="AH2">
-        <v>12.429212042236742</v>
-      </c>
-      <c r="AI2">
-        <v>17.241942112970097</v>
-      </c>
-      <c r="AJ2">
-        <v>11.910562041246035</v>
-      </c>
-      <c r="AK2">
-        <v>12.274756387181714</v>
-      </c>
-      <c r="AL2">
-        <v>14.649448247751842</v>
-      </c>
-      <c r="AM2">
-        <v>12.7491466503935</v>
-      </c>
-      <c r="AN2">
-        <v>12.71842323929503</v>
-      </c>
       <c r="AO2">
-        <v>14.856216530798536</v>
+        <v>14.85621651884628</v>
       </c>
       <c r="AQ2">
-        <v>11.4948608942269</v>
+        <v>11.494860884208649</v>
       </c>
       <c r="AR2">
-        <v>16.827288236823485</v>
+        <v>16.827288240512431</v>
       </c>
       <c r="AS2">
-        <v>13.311453406812015</v>
+        <v>13.311453395436931</v>
       </c>
       <c r="AU2">
-        <v>10.241948646043868</v>
+        <v>10.241948638182512</v>
       </c>
       <c r="AV2">
-        <v>10.814672250298663</v>
+        <v>10.814672236431736</v>
       </c>
       <c r="AW2">
-        <v>13.470143322991291</v>
+        <v>13.470143313167494</v>
       </c>
       <c r="AX2">
-        <v>16.573724135634428</v>
+        <v>16.573724129247658</v>
       </c>
       <c r="AY2">
-        <v>16.231440504694984</v>
+        <v>16.231440493163323</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -641,121 +641,121 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>14.095759990703977</v>
+      </c>
+      <c r="C3">
+        <v>13.295163215598581</v>
+      </c>
+      <c r="E3">
+        <v>16.265721724512623</v>
+      </c>
+      <c r="F3">
+        <v>10.123758802847219</v>
+      </c>
+      <c r="G3">
+        <v>14.015486875692297</v>
+      </c>
+      <c r="H3">
+        <v>10.12737168938812</v>
+      </c>
+      <c r="J3">
+        <v>16.494670806917373</v>
+      </c>
+      <c r="K3">
+        <v>14.331345602226619</v>
+      </c>
+      <c r="L3">
+        <v>12.351608668176116</v>
+      </c>
+      <c r="M3">
+        <v>13.336018936787642</v>
+      </c>
+      <c r="N3">
         <v>12.732355385724601</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>14.13931614361656</v>
+      </c>
+      <c r="Q3">
+        <v>10.820803514567011</v>
+      </c>
+      <c r="R3">
+        <v>9.5442078489037812</v>
+      </c>
+      <c r="W3">
+        <v>10.638450414540648</v>
+      </c>
+      <c r="AA3">
+        <v>14.894957395779546</v>
+      </c>
+      <c r="AB3">
+        <v>15.206826469677223</v>
+      </c>
+      <c r="AC3">
+        <v>15.440347234771151</v>
+      </c>
+      <c r="AD3">
+        <v>17.21909111220689</v>
+      </c>
+      <c r="AE3">
+        <v>12.541417279037837</v>
+      </c>
+      <c r="AF3">
+        <v>14.769165888507466</v>
+      </c>
+      <c r="AG3">
+        <v>11.753814634841946</v>
+      </c>
+      <c r="AH3">
+        <v>14.09638264551922</v>
+      </c>
+      <c r="AI3">
+        <v>15.75514567987239</v>
+      </c>
+      <c r="AJ3">
+        <v>13.402045168235263</v>
+      </c>
+      <c r="AK3">
+        <v>13.923003125265348</v>
+      </c>
+      <c r="AL3">
+        <v>14.343016888781149</v>
+      </c>
+      <c r="AM3">
         <v>13.855620047232103</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>11.054580937996574</v>
       </c>
-      <c r="F3">
-        <v>10.123758807788056</v>
-      </c>
-      <c r="G3">
-        <v>14.01548688010956</v>
-      </c>
-      <c r="H3">
-        <v>10.127371691370261</v>
-      </c>
-      <c r="J3">
-        <v>16.494670819222744</v>
-      </c>
-      <c r="K3">
-        <v>14.331345606803705</v>
-      </c>
-      <c r="L3">
-        <v>12.351608675875102</v>
-      </c>
-      <c r="M3">
-        <v>13.33599371959011</v>
-      </c>
-      <c r="N3">
-        <v>12.732355391142494</v>
-      </c>
-      <c r="P3">
-        <v>14.139316156308276</v>
-      </c>
-      <c r="Q3">
-        <v>10.820803519493191</v>
-      </c>
-      <c r="R3">
-        <v>9.5442078609242049</v>
-      </c>
-      <c r="W3">
-        <v>10.638450424587392</v>
-      </c>
-      <c r="AA3">
-        <v>14.894957404970055</v>
-      </c>
-      <c r="AB3">
-        <v>15.206826477787979</v>
-      </c>
-      <c r="AC3">
-        <v>15.440347237144273</v>
-      </c>
-      <c r="AD3">
-        <v>17.219091118322851</v>
-      </c>
-      <c r="AE3">
-        <v>12.541417281297168</v>
-      </c>
-      <c r="AF3">
-        <v>14.769165894724107</v>
-      </c>
-      <c r="AG3">
-        <v>11.753814643190488</v>
-      </c>
-      <c r="AH3">
-        <v>14.096382654482916</v>
-      </c>
-      <c r="AI3">
-        <v>15.755145693193548</v>
-      </c>
-      <c r="AJ3">
-        <v>13.402045176669111</v>
-      </c>
-      <c r="AK3">
-        <v>13.923003131375713</v>
-      </c>
-      <c r="AL3">
-        <v>14.343016899925537</v>
-      </c>
-      <c r="AM3">
-        <v>13.855620061542998</v>
-      </c>
-      <c r="AN3">
-        <v>11.054580945361172</v>
-      </c>
       <c r="AO3">
-        <v>15.531181571281399</v>
+        <v>15.531181566149968</v>
       </c>
       <c r="AP3">
-        <v>11.247680212419194</v>
+        <v>11.247680205676842</v>
       </c>
       <c r="AQ3">
-        <v>11.009267787688536</v>
+        <v>11.009267784812847</v>
       </c>
       <c r="AS3">
-        <v>12.214889767999406</v>
+        <v>12.214889766069499</v>
       </c>
       <c r="AT3">
-        <v>16.183335354418105</v>
+        <v>16.183335345052154</v>
       </c>
       <c r="AU3">
-        <v>11.115918558918796</v>
+        <v>11.11591855652112</v>
       </c>
       <c r="AV3">
-        <v>10.713630096589185</v>
+        <v>10.713630090131062</v>
       </c>
       <c r="AW3">
-        <v>13.466043142304057</v>
+        <v>13.466043134531979</v>
       </c>
       <c r="AX3">
-        <v>14.760809496080585</v>
+        <v>14.760809487465934</v>
       </c>
       <c r="AY3">
-        <v>18.030589818411514</v>
+        <v>18.030589808067845</v>
       </c>
     </row>
   </sheetData>
